--- a/src/pricing/simpleFiles/MBC/Dom-AMT-Single.xlsx
+++ b/src/pricing/simpleFiles/MBC/Dom-AMT-Single.xlsx
@@ -1630,7 +1630,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>0</x:v>
@@ -1700,7 +1700,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>25.83</x:v>
+        <x:v>30.87</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>0</x:v>
@@ -2045,10 +2045,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -2062,10 +2062,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -2079,10 +2079,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -2096,10 +2096,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -2113,10 +2113,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -2130,10 +2130,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -2147,10 +2147,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -2164,10 +2164,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -2181,10 +2181,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -2198,10 +2198,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -2215,10 +2215,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -2232,10 +2232,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -2249,10 +2249,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.134893488</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2584,10 +2584,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
@@ -2604,10 +2604,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -2624,10 +2624,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -2644,10 +2644,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -2664,10 +2664,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -2684,10 +2684,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -2704,10 +2704,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -2724,10 +2724,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -2744,10 +2744,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
@@ -2764,10 +2764,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
@@ -2784,10 +2784,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
@@ -2804,10 +2804,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>125</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
@@ -2824,10 +2824,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>130</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2893,10 +2893,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>40.95</x:v>
+        <x:v>49.14</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>61.74</x:v>
+        <x:v>74.34</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
@@ -2913,10 +2913,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>43.47</x:v>
+        <x:v>51.66</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>64.89</x:v>
+        <x:v>78.12</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -2933,10 +2933,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>43.47</x:v>
+        <x:v>51.66</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>64.89</x:v>
+        <x:v>78.12</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -2953,10 +2953,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>42.84</x:v>
+        <x:v>51.66</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>64.89</x:v>
+        <x:v>77.49</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -2973,10 +2973,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>42.84</x:v>
+        <x:v>51.66</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>64.89</x:v>
+        <x:v>77.49</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -2993,10 +2993,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>42.84</x:v>
+        <x:v>51.66</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>64.89</x:v>
+        <x:v>77.49</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -3013,10 +3013,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>42.84</x:v>
+        <x:v>51.66</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>64.89</x:v>
+        <x:v>77.49</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -3033,10 +3033,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>42.21</x:v>
+        <x:v>51.03</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>64.89</x:v>
+        <x:v>77.49</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -3053,10 +3053,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>42.84</x:v>
+        <x:v>51.03</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>64.26</x:v>
+        <x:v>77.49</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
@@ -3073,10 +3073,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>42.84</x:v>
+        <x:v>51.03</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>64.26</x:v>
+        <x:v>77.49</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
@@ -3093,10 +3093,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>42.21</x:v>
+        <x:v>51.03</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>64.26</x:v>
+        <x:v>77.49</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
@@ -3113,10 +3113,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>52.29</x:v>
+        <x:v>62.37</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>78.75</x:v>
+        <x:v>94.5</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
@@ -3133,10 +3133,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>54.18</x:v>
+        <x:v>65.52</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>81.9</x:v>
+        <x:v>98.28</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3692,22 +3692,22 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -3724,22 +3724,22 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10">
@@ -3756,22 +3756,22 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10">
@@ -3788,22 +3788,22 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10">
@@ -3820,22 +3820,22 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10">
@@ -3852,22 +3852,22 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
@@ -3884,22 +3884,22 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
@@ -3916,22 +3916,22 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10">
@@ -3948,22 +3948,22 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10">
@@ -3980,22 +3980,22 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="I11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="J11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10">
@@ -4012,22 +4012,22 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="I12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="J12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10">
@@ -4044,22 +4044,22 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="H13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="I13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="J13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10">
@@ -4076,22 +4076,22 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="I14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="J14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4654,22 +4654,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>52.2105752380952</x:v>
+        <x:v>62.6526902857143</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
-        <x:v>57.4818352380952</x:v>
+        <x:v>68.9782022857143</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>67.2713180952381</x:v>
+        <x:v>80.7255817142857</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>80.9933282539683</x:v>
+        <x:v>97.1919939047619</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
-        <x:v>114.043291746032</x:v>
+        <x:v>136.851950095238</x:v>
       </x:c>
       <x:c r="K2" s="0" t="n">
-        <x:v>119.314551746032</x:v>
+        <x:v>143.177462095238</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:11">
@@ -4689,22 +4689,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>52.2105752380952</x:v>
+        <x:v>62.6526902857143</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>57.4818352380952</x:v>
+        <x:v>68.9782022857143</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>67.2713180952381</x:v>
+        <x:v>80.7255817142857</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>80.9933282539683</x:v>
+        <x:v>97.1919939047619</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
-        <x:v>114.043291746032</x:v>
+        <x:v>136.851950095238</x:v>
       </x:c>
       <x:c r="K3" s="0" t="n">
-        <x:v>119.314551746032</x:v>
+        <x:v>143.177462095238</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11">
@@ -4724,22 +4724,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>52.2105752380952</x:v>
+        <x:v>62.6526902857143</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>57.4818352380952</x:v>
+        <x:v>68.9782022857143</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>67.2713180952381</x:v>
+        <x:v>80.7255817142857</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
-        <x:v>80.9933282539683</x:v>
+        <x:v>97.1919939047619</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
-        <x:v>114.043291746032</x:v>
+        <x:v>136.851950095238</x:v>
       </x:c>
       <x:c r="K4" s="0" t="n">
-        <x:v>119.314551746032</x:v>
+        <x:v>143.177462095238</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:11">
@@ -4759,22 +4759,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>54.4696866666667</x:v>
+        <x:v>65.363624</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>59.7409466666667</x:v>
+        <x:v>71.689136</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>69.6977711111111</x:v>
+        <x:v>83.6373253333333</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>84.0891476190476</x:v>
+        <x:v>100.906977142857</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
-        <x:v>118.477843809524</x:v>
+        <x:v>142.173412571429</x:v>
       </x:c>
       <x:c r="K5" s="0" t="n">
-        <x:v>123.749103809524</x:v>
+        <x:v>148.498924571429</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:11">
@@ -4794,22 +4794,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>54.4696866666667</x:v>
+        <x:v>65.363624</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>59.7409466666667</x:v>
+        <x:v>71.689136</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>69.6977711111111</x:v>
+        <x:v>83.6373253333333</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>84.0891476190476</x:v>
+        <x:v>100.906977142857</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
-        <x:v>118.477843809524</x:v>
+        <x:v>142.173412571429</x:v>
       </x:c>
       <x:c r="K6" s="0" t="n">
-        <x:v>123.749103809524</x:v>
+        <x:v>148.498924571429</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:11">
@@ -4829,22 +4829,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>54.4696866666667</x:v>
+        <x:v>65.363624</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>59.7409466666667</x:v>
+        <x:v>71.689136</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>69.6977711111111</x:v>
+        <x:v>83.6373253333333</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>84.0891476190476</x:v>
+        <x:v>100.906977142857</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
-        <x:v>118.477843809524</x:v>
+        <x:v>142.173412571429</x:v>
       </x:c>
       <x:c r="K7" s="0" t="n">
-        <x:v>123.749103809524</x:v>
+        <x:v>148.498924571429</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:11">
@@ -4864,22 +4864,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>68.4427092063492</x:v>
+        <x:v>82.131251047619</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>75.1363726984127</x:v>
+        <x:v>90.1636472380952</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>87.6869917460318</x:v>
+        <x:v>105.224390095238</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
-        <x:v>105.759883174603</x:v>
+        <x:v>126.911859809524</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
-        <x:v>149.101354285714</x:v>
+        <x:v>178.921625142857</x:v>
       </x:c>
       <x:c r="K8" s="0" t="n">
-        <x:v>155.795017777778</x:v>
+        <x:v>186.954021333333</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:11">
@@ -4899,22 +4899,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>68.4427092063492</x:v>
+        <x:v>82.131251047619</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>75.1363726984127</x:v>
+        <x:v>90.1636472380952</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>87.6869917460318</x:v>
+        <x:v>105.224390095238</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>105.759883174603</x:v>
+        <x:v>126.911859809524</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
-        <x:v>149.101354285714</x:v>
+        <x:v>178.921625142857</x:v>
       </x:c>
       <x:c r="K9" s="0" t="n">
-        <x:v>155.795017777778</x:v>
+        <x:v>186.954021333333</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:11">
@@ -4934,22 +4934,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>68.4427092063492</x:v>
+        <x:v>82.131251047619</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
-        <x:v>75.1363726984127</x:v>
+        <x:v>90.1636472380952</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>87.6869917460318</x:v>
+        <x:v>105.224390095238</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>105.759883174603</x:v>
+        <x:v>126.911859809524</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
-        <x:v>149.101354285714</x:v>
+        <x:v>178.921625142857</x:v>
       </x:c>
       <x:c r="K10" s="0" t="n">
-        <x:v>155.795017777778</x:v>
+        <x:v>186.954021333333</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:11">
@@ -4969,22 +4969,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>77.3954841269841</x:v>
+        <x:v>92.874580952381</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
-        <x:v>84.9258555555556</x:v>
+        <x:v>101.911026666667</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>99.0662196825397</x:v>
+        <x:v>118.879463619048</x:v>
       </x:c>
       <x:c r="I11" s="0" t="n">
-        <x:v>119.565564126984</x:v>
+        <x:v>143.478676952381</x:v>
       </x:c>
       <x:c r="J11" s="0" t="n">
-        <x:v>168.512978412698</x:v>
+        <x:v>202.215574095238</x:v>
       </x:c>
       <x:c r="K11" s="0" t="n">
-        <x:v>176.127020634921</x:v>
+        <x:v>211.352424761905</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:11">
@@ -5004,22 +5004,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>84.34016</x:v>
+        <x:v>101.208192</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
-        <x:v>92.874580952381</x:v>
+        <x:v>111.449497142857</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>108.353677777778</x:v>
+        <x:v>130.024413333333</x:v>
       </x:c>
       <x:c r="I12" s="0" t="n">
-        <x:v>130.610108888889</x:v>
+        <x:v>156.732130666667</x:v>
       </x:c>
       <x:c r="J12" s="0" t="n">
-        <x:v>183.992075238095</x:v>
+        <x:v>220.790490285714</x:v>
       </x:c>
       <x:c r="K12" s="0" t="n">
-        <x:v>192.526496190476</x:v>
+        <x:v>231.031795428571</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:11">
@@ -5039,22 +5039,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>84.34016</x:v>
+        <x:v>101.208192</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
-        <x:v>92.874580952381</x:v>
+        <x:v>111.449497142857</x:v>
       </x:c>
       <x:c r="H13" s="0" t="n">
-        <x:v>108.353677777778</x:v>
+        <x:v>130.024413333333</x:v>
       </x:c>
       <x:c r="I13" s="0" t="n">
-        <x:v>130.610108888889</x:v>
+        <x:v>156.732130666667</x:v>
       </x:c>
       <x:c r="J13" s="0" t="n">
-        <x:v>183.992075238095</x:v>
+        <x:v>220.790490285714</x:v>
       </x:c>
       <x:c r="K13" s="0" t="n">
-        <x:v>192.526496190476</x:v>
+        <x:v>231.031795428571</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:11">
@@ -5074,22 +5074,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>54.4696866666667</x:v>
+        <x:v>65.363624</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
-        <x:v>59.7409466666667</x:v>
+        <x:v>71.689136</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>69.6977711111111</x:v>
+        <x:v>83.6373253333333</x:v>
       </x:c>
       <x:c r="I14" s="0" t="n">
-        <x:v>84.0891476190476</x:v>
+        <x:v>100.906977142857</x:v>
       </x:c>
       <x:c r="J14" s="0" t="n">
-        <x:v>118.477843809524</x:v>
+        <x:v>142.173412571429</x:v>
       </x:c>
       <x:c r="K14" s="0" t="n">
-        <x:v>123.749103809524</x:v>
+        <x:v>148.498924571429</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:11">
@@ -5109,22 +5109,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>305.24</x:v>
+        <x:v>366.288</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
-        <x:v>336.0575</x:v>
+        <x:v>403.269</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>393.29</x:v>
+        <x:v>471.948</x:v>
       </x:c>
       <x:c r="I15" s="0" t="n">
-        <x:v>473.513333333333</x:v>
+        <x:v>568.216</x:v>
       </x:c>
       <x:c r="J15" s="0" t="n">
-        <x:v>666.734166666667</x:v>
+        <x:v>800.081</x:v>
       </x:c>
       <x:c r="K15" s="0" t="n">
-        <x:v>697.551666666667</x:v>
+        <x:v>837.062</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:11">
@@ -5144,22 +5144,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>305.24</x:v>
+        <x:v>366.288</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
-        <x:v>336.0575</x:v>
+        <x:v>403.269</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>393.29</x:v>
+        <x:v>471.948</x:v>
       </x:c>
       <x:c r="I16" s="0" t="n">
-        <x:v>473.513333333333</x:v>
+        <x:v>568.216</x:v>
       </x:c>
       <x:c r="J16" s="0" t="n">
-        <x:v>666.734166666667</x:v>
+        <x:v>800.081</x:v>
       </x:c>
       <x:c r="K16" s="0" t="n">
-        <x:v>697.551666666667</x:v>
+        <x:v>837.062</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:11">
@@ -5179,22 +5179,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>305.24</x:v>
+        <x:v>366.288</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
-        <x:v>336.0575</x:v>
+        <x:v>403.269</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>393.29</x:v>
+        <x:v>471.948</x:v>
       </x:c>
       <x:c r="I17" s="0" t="n">
-        <x:v>473.513333333333</x:v>
+        <x:v>568.216</x:v>
       </x:c>
       <x:c r="J17" s="0" t="n">
-        <x:v>666.734166666667</x:v>
+        <x:v>800.081</x:v>
       </x:c>
       <x:c r="K17" s="0" t="n">
-        <x:v>697.551666666667</x:v>
+        <x:v>837.062</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:11">
@@ -5214,22 +5214,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>318.4475</x:v>
+        <x:v>382.137</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
-        <x:v>349.265</x:v>
+        <x:v>419.118</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>407.475833333333</x:v>
+        <x:v>488.971</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
-        <x:v>491.6125</x:v>
+        <x:v>589.935</x:v>
       </x:c>
       <x:c r="J18" s="0" t="n">
-        <x:v>692.66</x:v>
+        <x:v>831.192</x:v>
       </x:c>
       <x:c r="K18" s="0" t="n">
-        <x:v>723.4775</x:v>
+        <x:v>868.173</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:11">
@@ -5249,22 +5249,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>318.4475</x:v>
+        <x:v>382.137</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
-        <x:v>349.265</x:v>
+        <x:v>419.118</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>407.475833333333</x:v>
+        <x:v>488.971</x:v>
       </x:c>
       <x:c r="I19" s="0" t="n">
-        <x:v>491.6125</x:v>
+        <x:v>589.935</x:v>
       </x:c>
       <x:c r="J19" s="0" t="n">
-        <x:v>692.66</x:v>
+        <x:v>831.192</x:v>
       </x:c>
       <x:c r="K19" s="0" t="n">
-        <x:v>723.4775</x:v>
+        <x:v>868.173</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:11">
@@ -5284,22 +5284,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>318.4475</x:v>
+        <x:v>382.137</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
-        <x:v>349.265</x:v>
+        <x:v>419.118</x:v>
       </x:c>
       <x:c r="H20" s="0" t="n">
-        <x:v>407.475833333333</x:v>
+        <x:v>488.971</x:v>
       </x:c>
       <x:c r="I20" s="0" t="n">
-        <x:v>491.6125</x:v>
+        <x:v>589.935</x:v>
       </x:c>
       <x:c r="J20" s="0" t="n">
-        <x:v>692.66</x:v>
+        <x:v>831.192</x:v>
       </x:c>
       <x:c r="K20" s="0" t="n">
-        <x:v>723.4775</x:v>
+        <x:v>868.173</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:11">
@@ -5319,22 +5319,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>400.138333333333</x:v>
+        <x:v>480.166</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
-        <x:v>439.271666666667</x:v>
+        <x:v>527.126</x:v>
       </x:c>
       <x:c r="H21" s="0" t="n">
-        <x:v>512.646666666667</x:v>
+        <x:v>615.176</x:v>
       </x:c>
       <x:c r="I21" s="0" t="n">
-        <x:v>618.306666666667</x:v>
+        <x:v>741.968</x:v>
       </x:c>
       <x:c r="J21" s="0" t="n">
-        <x:v>871.695</x:v>
+        <x:v>1046.034</x:v>
       </x:c>
       <x:c r="K21" s="0" t="n">
-        <x:v>910.828333333333</x:v>
+        <x:v>1092.994</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:11">
@@ -5354,22 +5354,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>400.138333333333</x:v>
+        <x:v>480.166</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
-        <x:v>439.271666666667</x:v>
+        <x:v>527.126</x:v>
       </x:c>
       <x:c r="H22" s="0" t="n">
-        <x:v>512.646666666667</x:v>
+        <x:v>615.176</x:v>
       </x:c>
       <x:c r="I22" s="0" t="n">
-        <x:v>618.306666666667</x:v>
+        <x:v>741.968</x:v>
       </x:c>
       <x:c r="J22" s="0" t="n">
-        <x:v>871.695</x:v>
+        <x:v>1046.034</x:v>
       </x:c>
       <x:c r="K22" s="0" t="n">
-        <x:v>910.828333333333</x:v>
+        <x:v>1092.994</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:11">
@@ -5389,22 +5389,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>400.138333333333</x:v>
+        <x:v>480.166</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
-        <x:v>439.271666666667</x:v>
+        <x:v>527.126</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
-        <x:v>512.646666666667</x:v>
+        <x:v>615.176</x:v>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>618.306666666667</x:v>
+        <x:v>741.968</x:v>
       </x:c>
       <x:c r="J23" s="0" t="n">
-        <x:v>871.695</x:v>
+        <x:v>1046.034</x:v>
       </x:c>
       <x:c r="K23" s="0" t="n">
-        <x:v>910.828333333333</x:v>
+        <x:v>1092.994</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:11">
@@ -5424,22 +5424,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>452.479166666667</x:v>
+        <x:v>542.975</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
-        <x:v>496.504166666667</x:v>
+        <x:v>595.805</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>579.173333333333</x:v>
+        <x:v>695.008</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>699.019166666667</x:v>
+        <x:v>838.823</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
-        <x:v>985.181666666667</x:v>
+        <x:v>1182.218</x:v>
       </x:c>
       <x:c r="K24" s="0" t="n">
-        <x:v>1029.69583333333</x:v>
+        <x:v>1235.635</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:11">
@@ -5459,22 +5459,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>493.08</x:v>
+        <x:v>591.696</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
-        <x:v>542.975</x:v>
+        <x:v>651.57</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>633.470833333333</x:v>
+        <x:v>760.165</x:v>
       </x:c>
       <x:c r="I25" s="0" t="n">
-        <x:v>763.589166666667</x:v>
+        <x:v>916.307</x:v>
       </x:c>
       <x:c r="J25" s="0" t="n">
-        <x:v>1075.6775</x:v>
+        <x:v>1290.813</x:v>
       </x:c>
       <x:c r="K25" s="0" t="n">
-        <x:v>1125.5725</x:v>
+        <x:v>1350.687</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:11">
@@ -5494,22 +5494,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>493.08</x:v>
+        <x:v>591.696</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
-        <x:v>542.975</x:v>
+        <x:v>651.57</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>633.470833333333</x:v>
+        <x:v>760.165</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>763.589166666667</x:v>
+        <x:v>916.307</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
-        <x:v>1075.6775</x:v>
+        <x:v>1290.813</x:v>
       </x:c>
       <x:c r="K26" s="0" t="n">
-        <x:v>1125.5725</x:v>
+        <x:v>1350.687</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:11">
@@ -5529,22 +5529,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>318.4475</x:v>
+        <x:v>382.137</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
-        <x:v>349.265</x:v>
+        <x:v>419.118</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>407.475833333333</x:v>
+        <x:v>488.971</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>491.6125</x:v>
+        <x:v>589.935</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
-        <x:v>692.66</x:v>
+        <x:v>831.192</x:v>
       </x:c>
       <x:c r="K27" s="0" t="n">
-        <x:v>723.4775</x:v>
+        <x:v>868.173</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5574,7 +5574,7 @@
     <x:col min="3" max="3" width="10.840625000000001" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="8.700625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="12.700625" style="0" customWidth="1"/>
-    <x:col min="6" max="11" width="12.550625" style="0" customWidth="1"/>
+    <x:col min="6" max="11" width="13.550625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:11">
@@ -5629,22 +5629,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>32.8926624</x:v>
+        <x:v>39.47119488</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
-        <x:v>36.2135562</x:v>
+        <x:v>43.45626744</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>42.3809304</x:v>
+        <x:v>50.85711648</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>51.0257968</x:v>
+        <x:v>61.23095616</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
-        <x:v>71.8472738</x:v>
+        <x:v>86.21672856</x:v>
       </x:c>
       <x:c r="K2" s="0" t="n">
-        <x:v>75.1681676</x:v>
+        <x:v>90.20180112</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:11">
@@ -5664,22 +5664,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>32.8926624</x:v>
+        <x:v>39.47119488</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>36.2135562</x:v>
+        <x:v>43.45626744</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>42.3809304</x:v>
+        <x:v>50.85711648</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>51.0257968</x:v>
+        <x:v>61.23095616</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
-        <x:v>71.8472738</x:v>
+        <x:v>86.21672856</x:v>
       </x:c>
       <x:c r="K3" s="0" t="n">
-        <x:v>75.1681676</x:v>
+        <x:v>90.20180112</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11">
@@ -5699,22 +5699,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>32.8926624</x:v>
+        <x:v>39.47119488</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>36.2135562</x:v>
+        <x:v>43.45626744</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>42.3809304</x:v>
+        <x:v>50.85711648</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
-        <x:v>51.0257968</x:v>
+        <x:v>61.23095616</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
-        <x:v>71.8472738</x:v>
+        <x:v>86.21672856</x:v>
       </x:c>
       <x:c r="K4" s="0" t="n">
-        <x:v>75.1681676</x:v>
+        <x:v>90.20180112</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:11">
@@ -5734,22 +5734,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>34.3159026</x:v>
+        <x:v>41.17908312</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>37.6367964</x:v>
+        <x:v>45.16415568</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>43.9095958</x:v>
+        <x:v>52.69151496</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>52.976163</x:v>
+        <x:v>63.5713956</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
-        <x:v>74.6410416</x:v>
+        <x:v>89.56924992</x:v>
       </x:c>
       <x:c r="K5" s="0" t="n">
-        <x:v>77.9619354</x:v>
+        <x:v>93.55432248</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:11">
@@ -5769,22 +5769,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>34.3159026</x:v>
+        <x:v>41.17908312</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>37.6367964</x:v>
+        <x:v>45.16415568</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>43.9095958</x:v>
+        <x:v>52.69151496</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>52.976163</x:v>
+        <x:v>63.5713956</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
-        <x:v>74.6410416</x:v>
+        <x:v>89.56924992</x:v>
       </x:c>
       <x:c r="K6" s="0" t="n">
-        <x:v>77.9619354</x:v>
+        <x:v>93.55432248</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:11">
@@ -5804,22 +5804,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>34.3159026</x:v>
+        <x:v>41.17908312</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>37.6367964</x:v>
+        <x:v>45.16415568</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>43.9095958</x:v>
+        <x:v>52.69151496</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>52.976163</x:v>
+        <x:v>63.5713956</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
-        <x:v>74.6410416</x:v>
+        <x:v>89.56924992</x:v>
       </x:c>
       <x:c r="K7" s="0" t="n">
-        <x:v>77.9619354</x:v>
+        <x:v>93.55432248</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:11">
@@ -5839,22 +5839,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>43.1189068</x:v>
+        <x:v>51.74268816</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>47.3359148</x:v>
+        <x:v>56.80309776</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>55.2428048</x:v>
+        <x:v>66.29136576</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
-        <x:v>66.6287264</x:v>
+        <x:v>79.95447168</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
-        <x:v>93.9338532</x:v>
+        <x:v>112.72062384</x:v>
       </x:c>
       <x:c r="K8" s="0" t="n">
-        <x:v>98.1508612</x:v>
+        <x:v>117.78103344</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:11">
@@ -5874,22 +5874,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>43.1189068</x:v>
+        <x:v>51.74268816</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>47.3359148</x:v>
+        <x:v>56.80309776</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>55.2428048</x:v>
+        <x:v>66.29136576</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>66.6287264</x:v>
+        <x:v>79.95447168</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
-        <x:v>93.9338532</x:v>
+        <x:v>112.72062384</x:v>
       </x:c>
       <x:c r="K9" s="0" t="n">
-        <x:v>98.1508612</x:v>
+        <x:v>117.78103344</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:11">
@@ -5909,22 +5909,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>43.1189068</x:v>
+        <x:v>51.74268816</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
-        <x:v>47.3359148</x:v>
+        <x:v>56.80309776</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>55.2428048</x:v>
+        <x:v>66.29136576</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>66.6287264</x:v>
+        <x:v>79.95447168</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
-        <x:v>93.9338532</x:v>
+        <x:v>112.72062384</x:v>
       </x:c>
       <x:c r="K10" s="0" t="n">
-        <x:v>98.1508612</x:v>
+        <x:v>117.78103344</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:11">
@@ -5944,22 +5944,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>48.759155</x:v>
+        <x:v>58.510986</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
-        <x:v>53.503289</x:v>
+        <x:v>64.2039468</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>62.4117184</x:v>
+        <x:v>74.89406208</x:v>
       </x:c>
       <x:c r="I11" s="0" t="n">
-        <x:v>75.3263054</x:v>
+        <x:v>90.39156648</x:v>
       </x:c>
       <x:c r="J11" s="0" t="n">
-        <x:v>106.1631764</x:v>
+        <x:v>127.39581168</x:v>
       </x:c>
       <x:c r="K11" s="0" t="n">
-        <x:v>110.960023</x:v>
+        <x:v>133.1520276</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:11">
@@ -5979,22 +5979,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>53.1343008</x:v>
+        <x:v>63.76116096</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
-        <x:v>58.510986</x:v>
+        <x:v>70.2131832</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>68.262817</x:v>
+        <x:v>81.9153804</x:v>
       </x:c>
       <x:c r="I12" s="0" t="n">
-        <x:v>82.2843686</x:v>
+        <x:v>98.74124232</x:v>
       </x:c>
       <x:c r="J12" s="0" t="n">
-        <x:v>115.9150074</x:v>
+        <x:v>139.09800888</x:v>
       </x:c>
       <x:c r="K12" s="0" t="n">
-        <x:v>121.2916926</x:v>
+        <x:v>145.55003112</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:11">
@@ -6014,22 +6014,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>53.1343008</x:v>
+        <x:v>63.76116096</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
-        <x:v>58.510986</x:v>
+        <x:v>70.2131832</x:v>
       </x:c>
       <x:c r="H13" s="0" t="n">
-        <x:v>68.262817</x:v>
+        <x:v>81.9153804</x:v>
       </x:c>
       <x:c r="I13" s="0" t="n">
-        <x:v>82.2843686</x:v>
+        <x:v>98.74124232</x:v>
       </x:c>
       <x:c r="J13" s="0" t="n">
-        <x:v>115.9150074</x:v>
+        <x:v>139.09800888</x:v>
       </x:c>
       <x:c r="K13" s="0" t="n">
-        <x:v>121.2916926</x:v>
+        <x:v>145.55003112</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:11">
@@ -6049,22 +6049,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>34.3159026</x:v>
+        <x:v>41.17908312</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
-        <x:v>37.6367964</x:v>
+        <x:v>45.16415568</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
-        <x:v>43.9095958</x:v>
+        <x:v>52.69151496</x:v>
       </x:c>
       <x:c r="I14" s="0" t="n">
-        <x:v>52.976163</x:v>
+        <x:v>63.5713956</x:v>
       </x:c>
       <x:c r="J14" s="0" t="n">
-        <x:v>74.6410416</x:v>
+        <x:v>89.56924992</x:v>
       </x:c>
       <x:c r="K14" s="0" t="n">
-        <x:v>77.9619354</x:v>
+        <x:v>93.55432248</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:11">
@@ -6084,22 +6084,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>192.3012</x:v>
+        <x:v>230.76144</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
-        <x:v>211.716225</x:v>
+        <x:v>254.05947</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>247.7727</x:v>
+        <x:v>297.32724</x:v>
       </x:c>
       <x:c r="I15" s="0" t="n">
-        <x:v>298.3134</x:v>
+        <x:v>357.97608</x:v>
       </x:c>
       <x:c r="J15" s="0" t="n">
-        <x:v>420.042525</x:v>
+        <x:v>504.05103</x:v>
       </x:c>
       <x:c r="K15" s="0" t="n">
-        <x:v>439.45755</x:v>
+        <x:v>527.34906</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:11">
@@ -6119,22 +6119,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>192.3012</x:v>
+        <x:v>230.76144</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
-        <x:v>211.716225</x:v>
+        <x:v>254.05947</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>247.7727</x:v>
+        <x:v>297.32724</x:v>
       </x:c>
       <x:c r="I16" s="0" t="n">
-        <x:v>298.3134</x:v>
+        <x:v>357.97608</x:v>
       </x:c>
       <x:c r="J16" s="0" t="n">
-        <x:v>420.042525</x:v>
+        <x:v>504.05103</x:v>
       </x:c>
       <x:c r="K16" s="0" t="n">
-        <x:v>439.45755</x:v>
+        <x:v>527.34906</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:11">
@@ -6154,22 +6154,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>192.3012</x:v>
+        <x:v>230.76144</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
-        <x:v>211.716225</x:v>
+        <x:v>254.05947</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>247.7727</x:v>
+        <x:v>297.32724</x:v>
       </x:c>
       <x:c r="I17" s="0" t="n">
-        <x:v>298.3134</x:v>
+        <x:v>357.97608</x:v>
       </x:c>
       <x:c r="J17" s="0" t="n">
-        <x:v>420.042525</x:v>
+        <x:v>504.05103</x:v>
       </x:c>
       <x:c r="K17" s="0" t="n">
-        <x:v>439.45755</x:v>
+        <x:v>527.34906</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:11">
@@ -6189,22 +6189,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>200.621925</x:v>
+        <x:v>240.74631</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
-        <x:v>220.03695</x:v>
+        <x:v>264.04434</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>256.709775</x:v>
+        <x:v>308.05173</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
-        <x:v>309.715875</x:v>
+        <x:v>371.65905</x:v>
       </x:c>
       <x:c r="J18" s="0" t="n">
-        <x:v>436.3758</x:v>
+        <x:v>523.65096</x:v>
       </x:c>
       <x:c r="K18" s="0" t="n">
-        <x:v>455.790825</x:v>
+        <x:v>546.94899</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:11">
@@ -6224,22 +6224,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>200.621925</x:v>
+        <x:v>240.74631</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
-        <x:v>220.03695</x:v>
+        <x:v>264.04434</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>256.709775</x:v>
+        <x:v>308.05173</x:v>
       </x:c>
       <x:c r="I19" s="0" t="n">
-        <x:v>309.715875</x:v>
+        <x:v>371.65905</x:v>
       </x:c>
       <x:c r="J19" s="0" t="n">
-        <x:v>436.3758</x:v>
+        <x:v>523.65096</x:v>
       </x:c>
       <x:c r="K19" s="0" t="n">
-        <x:v>455.790825</x:v>
+        <x:v>546.94899</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:11">
@@ -6259,22 +6259,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>200.621925</x:v>
+        <x:v>240.74631</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
-        <x:v>220.03695</x:v>
+        <x:v>264.04434</x:v>
       </x:c>
       <x:c r="H20" s="0" t="n">
-        <x:v>256.709775</x:v>
+        <x:v>308.05173</x:v>
       </x:c>
       <x:c r="I20" s="0" t="n">
-        <x:v>309.715875</x:v>
+        <x:v>371.65905</x:v>
       </x:c>
       <x:c r="J20" s="0" t="n">
-        <x:v>436.3758</x:v>
+        <x:v>523.65096</x:v>
       </x:c>
       <x:c r="K20" s="0" t="n">
-        <x:v>455.790825</x:v>
+        <x:v>546.94899</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:11">
@@ -6294,22 +6294,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>252.08715</x:v>
+        <x:v>302.50458</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
-        <x:v>276.74115</x:v>
+        <x:v>332.08938</x:v>
       </x:c>
       <x:c r="H21" s="0" t="n">
-        <x:v>322.9674</x:v>
+        <x:v>387.56088</x:v>
       </x:c>
       <x:c r="I21" s="0" t="n">
-        <x:v>389.5332</x:v>
+        <x:v>467.43984</x:v>
       </x:c>
       <x:c r="J21" s="0" t="n">
-        <x:v>549.16785</x:v>
+        <x:v>659.00142</x:v>
       </x:c>
       <x:c r="K21" s="0" t="n">
-        <x:v>573.82185</x:v>
+        <x:v>688.58622</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:11">
@@ -6329,22 +6329,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>252.08715</x:v>
+        <x:v>302.50458</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
-        <x:v>276.74115</x:v>
+        <x:v>332.08938</x:v>
       </x:c>
       <x:c r="H22" s="0" t="n">
-        <x:v>322.9674</x:v>
+        <x:v>387.56088</x:v>
       </x:c>
       <x:c r="I22" s="0" t="n">
-        <x:v>389.5332</x:v>
+        <x:v>467.43984</x:v>
       </x:c>
       <x:c r="J22" s="0" t="n">
-        <x:v>549.16785</x:v>
+        <x:v>659.00142</x:v>
       </x:c>
       <x:c r="K22" s="0" t="n">
-        <x:v>573.82185</x:v>
+        <x:v>688.58622</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:11">
@@ -6364,22 +6364,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>252.08715</x:v>
+        <x:v>302.50458</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
-        <x:v>276.74115</x:v>
+        <x:v>332.08938</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
-        <x:v>322.9674</x:v>
+        <x:v>387.56088</x:v>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>389.5332</x:v>
+        <x:v>467.43984</x:v>
       </x:c>
       <x:c r="J23" s="0" t="n">
-        <x:v>549.16785</x:v>
+        <x:v>659.00142</x:v>
       </x:c>
       <x:c r="K23" s="0" t="n">
-        <x:v>573.82185</x:v>
+        <x:v>688.58622</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:11">
@@ -6399,22 +6399,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>285.061875</x:v>
+        <x:v>342.07425</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
-        <x:v>312.797625</x:v>
+        <x:v>375.35715</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>364.8792</x:v>
+        <x:v>437.85504</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>440.382075</x:v>
+        <x:v>528.45849</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
-        <x:v>620.66445</x:v>
+        <x:v>744.79734</x:v>
       </x:c>
       <x:c r="K24" s="0" t="n">
-        <x:v>648.708375</x:v>
+        <x:v>778.45005</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:11">
@@ -6434,22 +6434,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>310.6404</x:v>
+        <x:v>372.76848</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
-        <x:v>342.07425</x:v>
+        <x:v>410.4891</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>399.086625</x:v>
+        <x:v>478.90395</x:v>
       </x:c>
       <x:c r="I25" s="0" t="n">
-        <x:v>481.061175</x:v>
+        <x:v>577.27341</x:v>
       </x:c>
       <x:c r="J25" s="0" t="n">
-        <x:v>677.676825</x:v>
+        <x:v>813.21219</x:v>
       </x:c>
       <x:c r="K25" s="0" t="n">
-        <x:v>709.110675</x:v>
+        <x:v>850.93281</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:11">
@@ -6469,22 +6469,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>310.6404</x:v>
+        <x:v>372.76848</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
-        <x:v>342.07425</x:v>
+        <x:v>410.4891</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>399.086625</x:v>
+        <x:v>478.90395</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>481.061175</x:v>
+        <x:v>577.27341</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
-        <x:v>677.676825</x:v>
+        <x:v>813.21219</x:v>
       </x:c>
       <x:c r="K26" s="0" t="n">
-        <x:v>709.110675</x:v>
+        <x:v>850.93281</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:11">
@@ -6504,22 +6504,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>200.621925</x:v>
+        <x:v>240.74631</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
-        <x:v>220.03695</x:v>
+        <x:v>264.04434</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>256.709775</x:v>
+        <x:v>308.05173</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>309.715875</x:v>
+        <x:v>371.65905</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
-        <x:v>436.3758</x:v>
+        <x:v>523.65096</x:v>
       </x:c>
       <x:c r="K27" s="0" t="n">
-        <x:v>455.790825</x:v>
+        <x:v>546.94899</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6914,10 +6914,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -6931,10 +6931,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -6948,10 +6948,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -6965,10 +6965,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -6982,10 +6982,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -6999,10 +6999,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -7016,10 +7016,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -7033,10 +7033,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -7050,10 +7050,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -7067,10 +7067,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -7084,10 +7084,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -7101,10 +7101,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -7118,10 +7118,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7755,10 +7755,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -7772,10 +7772,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -7789,10 +7789,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -7806,10 +7806,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -7823,10 +7823,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -7840,10 +7840,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -7857,10 +7857,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -7874,10 +7874,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -7891,10 +7891,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -7908,10 +7908,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -7925,10 +7925,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -7942,10 +7942,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -7959,10 +7959,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -8021,10 +8021,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>104.58</x:v>
+        <x:v>125.37</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>104.58</x:v>
+        <x:v>125.37</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -8038,10 +8038,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>104.58</x:v>
+        <x:v>125.37</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>104.58</x:v>
+        <x:v>125.37</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -8055,10 +8055,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>104.58</x:v>
+        <x:v>125.37</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>104.58</x:v>
+        <x:v>125.37</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -8072,10 +8072,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>104.58</x:v>
+        <x:v>125.37</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>104.58</x:v>
+        <x:v>125.37</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -8089,10 +8089,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>104.58</x:v>
+        <x:v>125.37</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>104.58</x:v>
+        <x:v>125.37</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -8106,10 +8106,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>104.58</x:v>
+        <x:v>125.37</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>104.58</x:v>
+        <x:v>125.37</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -8123,10 +8123,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>104.58</x:v>
+        <x:v>125.37</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>104.58</x:v>
+        <x:v>125.37</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -8140,10 +8140,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>108.99</x:v>
+        <x:v>130.41</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>108.99</x:v>
+        <x:v>130.41</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -8157,10 +8157,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>108.99</x:v>
+        <x:v>130.41</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>108.99</x:v>
+        <x:v>130.41</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -8174,10 +8174,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>108.99</x:v>
+        <x:v>130.41</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>108.99</x:v>
+        <x:v>130.41</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -8191,10 +8191,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>108.99</x:v>
+        <x:v>130.41</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>108.99</x:v>
+        <x:v>130.41</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -8208,10 +8208,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>108.99</x:v>
+        <x:v>130.41</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>108.99</x:v>
+        <x:v>130.41</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -8225,10 +8225,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>108.99</x:v>
+        <x:v>130.41</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>108.99</x:v>
+        <x:v>130.41</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -8553,10 +8553,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -8570,10 +8570,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -8587,10 +8587,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -8604,10 +8604,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -8621,10 +8621,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -8638,10 +8638,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -8655,10 +8655,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -8672,10 +8672,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -8689,10 +8689,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -8706,10 +8706,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -8723,10 +8723,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -8740,10 +8740,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -8757,10 +8757,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -9883,10 +9883,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -9900,10 +9900,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -9917,10 +9917,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -9934,10 +9934,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -9951,10 +9951,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -9968,10 +9968,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -9985,10 +9985,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -10002,10 +10002,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -10019,10 +10019,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -10036,10 +10036,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -10053,10 +10053,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -10070,10 +10070,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -10087,10 +10087,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -10415,10 +10415,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -10432,10 +10432,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -10449,10 +10449,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -10466,10 +10466,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -10483,10 +10483,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -10500,10 +10500,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -10517,10 +10517,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -10534,10 +10534,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -10551,10 +10551,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -10568,10 +10568,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -10585,10 +10585,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -10602,10 +10602,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -10619,10 +10619,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -10681,10 +10681,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>89.46</x:v>
+        <x:v>107.1</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>89.46</x:v>
+        <x:v>107.1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -10698,10 +10698,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>89.46</x:v>
+        <x:v>107.1</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>89.46</x:v>
+        <x:v>107.1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -10715,10 +10715,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>89.46</x:v>
+        <x:v>107.1</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>89.46</x:v>
+        <x:v>107.1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -10732,10 +10732,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>89.46</x:v>
+        <x:v>107.1</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>89.46</x:v>
+        <x:v>107.1</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -10749,10 +10749,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>89.46</x:v>
+        <x:v>107.1</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>89.46</x:v>
+        <x:v>107.1</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -10766,10 +10766,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>89.46</x:v>
+        <x:v>107.1</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>89.46</x:v>
+        <x:v>107.1</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -10783,10 +10783,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>89.46</x:v>
+        <x:v>107.1</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>89.46</x:v>
+        <x:v>107.1</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -10800,10 +10800,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>93.24</x:v>
+        <x:v>111.51</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>93.24</x:v>
+        <x:v>111.51</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -10817,10 +10817,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>93.24</x:v>
+        <x:v>111.51</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>93.24</x:v>
+        <x:v>111.51</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -10834,10 +10834,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>93.24</x:v>
+        <x:v>111.51</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>93.24</x:v>
+        <x:v>111.51</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -10851,10 +10851,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>93.24</x:v>
+        <x:v>111.51</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>93.24</x:v>
+        <x:v>111.51</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -10868,10 +10868,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>93.24</x:v>
+        <x:v>111.51</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>93.24</x:v>
+        <x:v>111.51</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -10885,10 +10885,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>93.24</x:v>
+        <x:v>111.51</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>93.24</x:v>
+        <x:v>111.51</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11213,10 +11213,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -11230,10 +11230,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -11247,10 +11247,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -11264,10 +11264,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -11281,10 +11281,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -11298,10 +11298,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -11315,10 +11315,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -11332,10 +11332,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -11349,10 +11349,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -11366,10 +11366,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -11383,10 +11383,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -11400,10 +11400,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -11417,10 +11417,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11745,10 +11745,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -11762,10 +11762,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -11779,10 +11779,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -11796,10 +11796,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -11813,10 +11813,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -11830,10 +11830,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -11847,10 +11847,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -11864,10 +11864,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -11881,10 +11881,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -11898,10 +11898,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -11915,10 +11915,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -11932,10 +11932,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -11949,10 +11949,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11981,7 +11981,7 @@
     <x:col min="2" max="2" width="11.700625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="10.840625000000001" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="8.700625" style="0" customWidth="1"/>
-    <x:col min="5" max="6" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="5" max="6" width="10.270625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">
@@ -12018,10 +12018,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
@@ -12038,10 +12038,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -12058,10 +12058,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -12078,10 +12078,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -12098,10 +12098,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -12118,10 +12118,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -12138,10 +12138,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -12158,10 +12158,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -12178,10 +12178,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
@@ -12198,10 +12198,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
@@ -12218,10 +12218,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
@@ -12238,10 +12238,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
@@ -12258,10 +12258,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>-0.2502</x:v>
+        <x:v>-0.50024</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12320,10 +12320,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>148.05</x:v>
+        <x:v>177.66</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>148.05</x:v>
+        <x:v>177.66</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -12337,10 +12337,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>148.05</x:v>
+        <x:v>177.66</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>148.05</x:v>
+        <x:v>177.66</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -12354,10 +12354,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>148.05</x:v>
+        <x:v>177.66</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>148.05</x:v>
+        <x:v>177.66</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -12371,10 +12371,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>148.05</x:v>
+        <x:v>177.66</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>148.05</x:v>
+        <x:v>177.66</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -12388,10 +12388,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>148.05</x:v>
+        <x:v>177.66</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>148.05</x:v>
+        <x:v>177.66</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -12405,10 +12405,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>148.05</x:v>
+        <x:v>177.66</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>148.05</x:v>
+        <x:v>177.66</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -12422,10 +12422,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>148.05</x:v>
+        <x:v>177.66</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>148.05</x:v>
+        <x:v>177.66</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -12439,10 +12439,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>154.35</x:v>
+        <x:v>185.22</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>154.35</x:v>
+        <x:v>185.22</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -12456,10 +12456,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>154.35</x:v>
+        <x:v>185.22</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>154.35</x:v>
+        <x:v>185.22</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -12473,10 +12473,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>154.35</x:v>
+        <x:v>185.22</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>154.35</x:v>
+        <x:v>185.22</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -12490,10 +12490,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>154.35</x:v>
+        <x:v>185.22</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>154.35</x:v>
+        <x:v>185.22</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -12507,10 +12507,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>154.35</x:v>
+        <x:v>185.22</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>154.35</x:v>
+        <x:v>185.22</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -12524,10 +12524,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>154.35</x:v>
+        <x:v>185.22</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>154.35</x:v>
+        <x:v>185.22</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12852,10 +12852,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -12869,10 +12869,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -12886,10 +12886,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -12903,10 +12903,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -12920,10 +12920,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -12937,10 +12937,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -12954,10 +12954,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -12971,10 +12971,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -12988,10 +12988,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -13005,10 +13005,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -13022,10 +13022,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -13039,10 +13039,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -13056,10 +13056,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13384,10 +13384,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -13401,10 +13401,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -13418,10 +13418,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -13435,10 +13435,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -13452,10 +13452,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -13469,10 +13469,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -13486,10 +13486,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -13503,10 +13503,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -13520,10 +13520,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -13537,10 +13537,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -13554,10 +13554,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -13571,10 +13571,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -13588,10 +13588,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13650,10 +13650,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>155.61</x:v>
+        <x:v>187.11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>155.61</x:v>
+        <x:v>187.11</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -13667,10 +13667,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>155.61</x:v>
+        <x:v>187.11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>155.61</x:v>
+        <x:v>187.11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -13684,10 +13684,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>155.61</x:v>
+        <x:v>187.11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>155.61</x:v>
+        <x:v>187.11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -13701,10 +13701,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>155.61</x:v>
+        <x:v>187.11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>155.61</x:v>
+        <x:v>187.11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -13718,10 +13718,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>155.61</x:v>
+        <x:v>187.11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>155.61</x:v>
+        <x:v>187.11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -13735,10 +13735,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>155.61</x:v>
+        <x:v>187.11</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>155.61</x:v>
+        <x:v>187.11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -13752,10 +13752,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>155.61</x:v>
+        <x:v>187.11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>155.61</x:v>
+        <x:v>187.11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -13769,10 +13769,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>162.54</x:v>
+        <x:v>194.67</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>162.54</x:v>
+        <x:v>194.67</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -13786,10 +13786,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>162.54</x:v>
+        <x:v>194.67</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>162.54</x:v>
+        <x:v>194.67</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -13803,10 +13803,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>162.54</x:v>
+        <x:v>194.67</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>162.54</x:v>
+        <x:v>194.67</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -13820,10 +13820,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>162.54</x:v>
+        <x:v>194.67</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>162.54</x:v>
+        <x:v>194.67</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -13837,10 +13837,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>162.54</x:v>
+        <x:v>194.67</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>162.54</x:v>
+        <x:v>194.67</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -13854,10 +13854,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>162.54</x:v>
+        <x:v>194.67</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>162.54</x:v>
+        <x:v>194.67</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14182,10 +14182,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -14199,10 +14199,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -14216,10 +14216,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -14233,10 +14233,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -14250,10 +14250,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -14267,10 +14267,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -14284,10 +14284,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -14301,10 +14301,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -14318,10 +14318,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -14335,10 +14335,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -14352,10 +14352,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -14369,10 +14369,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -14386,10 +14386,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14714,10 +14714,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -14731,10 +14731,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -14748,10 +14748,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -14765,10 +14765,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -14782,10 +14782,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -14799,10 +14799,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -14816,10 +14816,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -14833,10 +14833,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>285</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>285</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -14850,10 +14850,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>285</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>285</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -14867,10 +14867,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>285</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>285</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -14884,10 +14884,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>285</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>285</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -14901,10 +14901,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>285</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>285</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -14918,10 +14918,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>285</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>285</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14980,10 +14980,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>172.62</x:v>
+        <x:v>206.64</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>172.62</x:v>
+        <x:v>206.64</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -14997,10 +14997,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>172.62</x:v>
+        <x:v>206.64</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>172.62</x:v>
+        <x:v>206.64</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -15014,10 +15014,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>172.62</x:v>
+        <x:v>206.64</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>172.62</x:v>
+        <x:v>206.64</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -15031,10 +15031,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>172.62</x:v>
+        <x:v>206.64</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>172.62</x:v>
+        <x:v>206.64</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -15048,10 +15048,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>172.62</x:v>
+        <x:v>206.64</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>172.62</x:v>
+        <x:v>206.64</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -15065,10 +15065,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>172.62</x:v>
+        <x:v>206.64</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>172.62</x:v>
+        <x:v>206.64</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -15082,10 +15082,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>172.62</x:v>
+        <x:v>206.64</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>172.62</x:v>
+        <x:v>206.64</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -15099,10 +15099,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>179.55</x:v>
+        <x:v>215.46</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>179.55</x:v>
+        <x:v>215.46</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -15116,10 +15116,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>179.55</x:v>
+        <x:v>215.46</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>179.55</x:v>
+        <x:v>215.46</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -15133,10 +15133,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>179.55</x:v>
+        <x:v>215.46</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>179.55</x:v>
+        <x:v>215.46</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -15150,10 +15150,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>179.55</x:v>
+        <x:v>215.46</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>179.55</x:v>
+        <x:v>215.46</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -15167,10 +15167,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>179.55</x:v>
+        <x:v>215.46</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>179.55</x:v>
+        <x:v>215.46</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -15184,10 +15184,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>179.55</x:v>
+        <x:v>215.46</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>179.55</x:v>
+        <x:v>215.46</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -15512,10 +15512,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -15529,10 +15529,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -15546,10 +15546,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -15563,10 +15563,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -15580,10 +15580,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -15597,10 +15597,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -15614,10 +15614,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -15631,10 +15631,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -15648,10 +15648,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -15665,10 +15665,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -15682,10 +15682,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -15699,10 +15699,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -15716,10 +15716,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-0.2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -16044,10 +16044,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>397</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>397</x:v>
+        <x:v>477</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -16061,10 +16061,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>397</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>397</x:v>
+        <x:v>477</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -16078,10 +16078,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>397</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>397</x:v>
+        <x:v>477</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -16095,10 +16095,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>397</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>397</x:v>
+        <x:v>477</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -16112,10 +16112,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>397</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>397</x:v>
+        <x:v>477</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -16129,10 +16129,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>397</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>397</x:v>
+        <x:v>477</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -16146,10 +16146,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>397</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>397</x:v>
+        <x:v>477</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -16163,10 +16163,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>414</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>414</x:v>
+        <x:v>497</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -16180,10 +16180,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>414</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>414</x:v>
+        <x:v>497</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -16197,10 +16197,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>414</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>414</x:v>
+        <x:v>497</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -16214,10 +16214,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>414</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>414</x:v>
+        <x:v>497</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -16231,10 +16231,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>414</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>414</x:v>
+        <x:v>497</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -16248,10 +16248,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>414</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>414</x:v>
+        <x:v>497</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -16310,10 +16310,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>250.11</x:v>
+        <x:v>300.51</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>250.11</x:v>
+        <x:v>300.51</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -16327,10 +16327,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>250.11</x:v>
+        <x:v>300.51</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>250.11</x:v>
+        <x:v>300.51</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -16344,10 +16344,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>250.11</x:v>
+        <x:v>300.51</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>250.11</x:v>
+        <x:v>300.51</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -16361,10 +16361,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>250.11</x:v>
+        <x:v>300.51</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>250.11</x:v>
+        <x:v>300.51</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -16378,10 +16378,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>250.11</x:v>
+        <x:v>300.51</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>250.11</x:v>
+        <x:v>300.51</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -16395,10 +16395,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>250.11</x:v>
+        <x:v>300.51</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>250.11</x:v>
+        <x:v>300.51</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -16412,10 +16412,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>250.11</x:v>
+        <x:v>300.51</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>250.11</x:v>
+        <x:v>300.51</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -16429,10 +16429,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>260.82</x:v>
+        <x:v>313.11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>260.82</x:v>
+        <x:v>313.11</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -16446,10 +16446,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>260.82</x:v>
+        <x:v>313.11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>260.82</x:v>
+        <x:v>313.11</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -16463,10 +16463,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>260.82</x:v>
+        <x:v>313.11</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>260.82</x:v>
+        <x:v>313.11</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -16480,10 +16480,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>260.82</x:v>
+        <x:v>313.11</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>260.82</x:v>
+        <x:v>313.11</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -16497,10 +16497,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>260.82</x:v>
+        <x:v>313.11</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>260.82</x:v>
+        <x:v>313.11</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -16514,10 +16514,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>260.82</x:v>
+        <x:v>313.11</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>260.82</x:v>
+        <x:v>313.11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -17201,10 +17201,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>126</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>189</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
@@ -17221,10 +17221,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>133</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>199</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -17241,10 +17241,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>133</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>199</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -17261,10 +17261,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>138</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>206</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -17281,10 +17281,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>138</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>206</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -17301,10 +17301,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>138</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>206</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -17321,10 +17321,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>138</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>206</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -17341,10 +17341,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>187</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>236</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -17361,10 +17361,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>191</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>239</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
@@ -17381,10 +17381,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>194</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>243</x:v>
+        <x:v>291</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
@@ -17401,10 +17401,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>195</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
@@ -17421,10 +17421,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>311</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>471</x:v>
+        <x:v>566</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
@@ -17441,10 +17441,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>325</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>492</x:v>
+        <x:v>590</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -17511,10 +17511,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>79.38</x:v>
+        <x:v>95.13</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>119.07</x:v>
+        <x:v>143.01</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
@@ -17531,10 +17531,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>83.79</x:v>
+        <x:v>100.17</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>125.37</x:v>
+        <x:v>150.57</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -17551,10 +17551,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>83.79</x:v>
+        <x:v>100.17</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>125.37</x:v>
+        <x:v>150.57</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -17571,10 +17571,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>86.94</x:v>
+        <x:v>104.58</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>129.78</x:v>
+        <x:v>155.61</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -17591,10 +17591,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>86.94</x:v>
+        <x:v>104.58</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>129.78</x:v>
+        <x:v>155.61</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -17611,10 +17611,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>86.94</x:v>
+        <x:v>104.58</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>129.78</x:v>
+        <x:v>155.61</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -17631,10 +17631,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>86.94</x:v>
+        <x:v>104.58</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>129.78</x:v>
+        <x:v>155.61</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -17651,10 +17651,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>117.81</x:v>
+        <x:v>141.12</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>148.68</x:v>
+        <x:v>178.29</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -17671,10 +17671,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>120.33</x:v>
+        <x:v>144.27</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>150.57</x:v>
+        <x:v>180.81</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
@@ -17691,10 +17691,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>122.22</x:v>
+        <x:v>146.16</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>153.09</x:v>
+        <x:v>183.33</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
@@ -17711,10 +17711,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>122.85</x:v>
+        <x:v>147.42</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>154.35</x:v>
+        <x:v>185.22</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
@@ -17731,10 +17731,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>195.93</x:v>
+        <x:v>234.99</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>296.73</x:v>
+        <x:v>356.58</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
@@ -17751,10 +17751,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>204.75</x:v>
+        <x:v>245.7</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>309.96</x:v>
+        <x:v>371.7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -17892,7 +17892,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="12.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.270625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.550625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="11.700625" style="0" customWidth="1"/>
   </x:cols>
@@ -17916,7 +17916,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.13506428</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>500</x:v>
@@ -17930,7 +17930,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.13506428</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>1500</x:v>
@@ -17944,7 +17944,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.13506428</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>2500</x:v>
@@ -17958,7 +17958,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.13506428</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>3500</x:v>
@@ -17972,7 +17972,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.13506428</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
         <x:v>4500</x:v>
@@ -18140,7 +18140,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>500</x:v>
@@ -18154,7 +18154,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>1500</x:v>
@@ -18168,7 +18168,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>2500</x:v>
@@ -18182,7 +18182,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>171</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>3500</x:v>
@@ -18196,7 +18196,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
-        <x:v>221</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
         <x:v>4500</x:v>
@@ -18252,7 +18252,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>15.75</x:v>
+        <x:v>18.9</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>500</x:v>
@@ -18266,7 +18266,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>45.99</x:v>
+        <x:v>55.44</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>1500</x:v>
@@ -18280,7 +18280,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>77.49</x:v>
+        <x:v>92.61</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>2500</x:v>
@@ -18294,7 +18294,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>107.73</x:v>
+        <x:v>129.15</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>3500</x:v>
@@ -18308,7 +18308,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
-        <x:v>139.23</x:v>
+        <x:v>166.95</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
         <x:v>4500</x:v>
@@ -18410,7 +18410,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="12.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.270625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.550625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="11.700625" style="0" customWidth="1"/>
   </x:cols>
@@ -18434,7 +18434,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.13506428</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>0</x:v>
@@ -18448,7 +18448,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>-0.779077907</x:v>
+        <x:v>-1.13506428</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>0</x:v>
